--- a/LaborShortageUSA/statemerge.xlsx
+++ b/LaborShortageUSA/statemerge.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\UC Davis\Writings\Labor Shortage\US data\rawdata\JOLTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\EarlyRetirementsUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5480DE-4B6C-4097-88C8-17FD3E19176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD6903-1993-48A8-883F-D3E32A67005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="8595" windowWidth="2040" windowHeight="6210" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
   <si>
     <t>Alabama</t>
   </si>
@@ -185,13 +186,69 @@
   </si>
   <si>
     <t>Wyoming</t>
+  </si>
+  <si>
+    <t>province_state</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>fips</t>
+  </si>
+  <si>
+    <t>Guam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond Princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grand Princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -200,6 +257,13 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -224,8 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -499,10 +564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,620 +575,1134 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D1" t="str">
-        <f>_xlfn.CONCAT("gen statemerge=",B1," if state==""",A1,"""")</f>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("gen statemerge=",B2," if state==""",A2,"""")</f>
         <v>gen statemerge=1 if state=="Alabama"</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT("replace statemerge=",B2," if state==""",A2,"""")</f>
+      <c r="D3" t="str">
+        <f>_xlfn.CONCAT("replace statemerge=",B3," if state==""",A3,"""")</f>
         <v>replace statemerge=2 if state=="Alaska"</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D51" si="0">_xlfn.CONCAT("replace statemerge=",B3," if state==""",A3,"""")</f>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D52" si="0">_xlfn.CONCAT("replace statemerge=",B4," if state==""",A4,"""")</f>
         <v>replace statemerge=4 if state=="Arizona"</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=5 if state=="Arkansas"</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=6 if state=="California"</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=8 if state=="Colorado"</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=9 if state=="Connecticut"</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>10</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=10 if state=="Delaware"</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=12 if state=="Florida"</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>13</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=13 if state=="Georgia"</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>15</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=15 if state=="Hawaii"</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>16</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=16 if state=="Idaho"</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>17</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=17 if state=="Illinois"</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="J14">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>18</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=18 if state=="Indiana"</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="J15">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>19</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=19 if state=="Iowa"</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>20</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=20 if state=="Kansas"</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>21</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=21 if state=="Kentucky"</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>22</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=22 if state=="Louisiana"</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>23</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=23 if state=="Maine"</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="J20">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>24</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=24 if state=="Maryland"</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="J21">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>25</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=25 if state=="Massachusetts"</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>26</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=26 if state=="Michigan"</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>27</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=27 if state=="Minnesota"</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="J24">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>28</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=28 if state=="Mississippi"</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>29</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=29 if state=="Missouri"</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="J26">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>30</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=30 if state=="Montana"</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="J27">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>31</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=31 if state=="Nebraska"</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="J28">
+        <v>31</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>32</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=32 if state=="Nevada"</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="J29">
+        <v>32</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>33</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=33 if state=="NewHampshire"</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="J30">
+        <v>33</v>
+      </c>
+      <c r="K30" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>34</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=34 if state=="NewJersey"</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="J31">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>35</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=35 if state=="NewMexico"</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="J32">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>36</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=36 if state=="NewYork"</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="J33">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>37</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=37 if state=="NorthCarolina"</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="J34">
+        <v>37</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>38</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=38 if state=="NorthDakota"</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="J35">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>39</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=39 if state=="Ohio"</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="J36">
+        <v>39</v>
+      </c>
+      <c r="K36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>40</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=40 if state=="Oklahoma"</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>41</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=41 if state=="Oregon"</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="J38">
+        <v>41</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>42</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=42 if state=="Pennsylvania"</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J39">
+        <v>42</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>44</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=44 if state=="RhodeIsland"</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>45</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=45 if state=="SouthCarolina"</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="J41">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>46</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=46 if state=="SouthDakota"</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="J42">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>47</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=47 if state=="Tennessee"</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="J43">
+        <v>47</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>48</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=48 if state=="Texas"</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="J44">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>49</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D45" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=49 if state=="Utah"</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="J45">
+        <v>49</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>50</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=50 if state=="Vermont"</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="J46">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>51</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D47" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=51 if state=="Virginia"</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="J47">
+        <v>51</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>53</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=53 if state=="Washington"</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="J48">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>54</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=54 if state=="WestVirginia"</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="J49">
+        <v>54</v>
+      </c>
+      <c r="K49" t="s">
+        <v>61</v>
+      </c>
+      <c r="L49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>55</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=55 if state=="Wisconsin"</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="J50">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>56</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=56 if state=="Wyoming"</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="J51">
+        <v>56</v>
+      </c>
+      <c r="K51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>43</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D52" t="str">
         <f t="shared" si="0"/>
         <v>replace statemerge=0 if state=="TotalUS"</v>
+      </c>
+      <c r="J52">
+        <v>66</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J53">
+        <v>69</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <v>72</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <v>888</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J56">
+        <v>999</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BBB6B-EA6B-4022-B510-0D0F30B5EA6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LaborShortageUSA/statemerge.xlsx
+++ b/LaborShortageUSA/statemerge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\EarlyRetirementsUSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CD6903-1993-48A8-883F-D3E32A67005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA35799A-2646-42D6-8895-F0D8D5CFC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="8595" windowWidth="2040" windowHeight="6210" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -566,8 +566,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A51" sqref="A2:A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BBB6B-EA6B-4022-B510-0D0F30B5EA6F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LaborShortageUSA/statemerge.xlsx
+++ b/LaborShortageUSA/statemerge.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA35799A-2646-42D6-8895-F0D8D5CFC754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A71867-9F29-4740-ACE5-131F731B1B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="125">
   <si>
     <t>Alabama</t>
   </si>
@@ -241,6 +242,181 @@
   </si>
   <si>
     <t>Grand Princess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>DistrictofColumbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PuertoRico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VirginIslands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,7 +751,7 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J1" t="s">
         <v>62</v>
       </c>
@@ -583,7 +759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -603,8 +779,17 @@
       <c r="L2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -624,8 +809,17 @@
       <c r="L3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -645,8 +839,17 @@
       <c r="L4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -666,8 +869,17 @@
       <c r="L5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -687,8 +899,17 @@
       <c r="L6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -708,8 +929,17 @@
       <c r="L7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -729,8 +959,17 @@
       <c r="L8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -750,8 +989,17 @@
       <c r="L9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -771,8 +1019,17 @@
       <c r="L10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -792,8 +1049,17 @@
       <c r="L11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -813,8 +1079,17 @@
       <c r="L12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -834,8 +1109,17 @@
       <c r="L13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -855,8 +1139,17 @@
       <c r="L14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -876,8 +1169,17 @@
       <c r="L15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -897,8 +1199,17 @@
       <c r="L16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -918,8 +1229,17 @@
       <c r="L17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -939,8 +1259,17 @@
       <c r="L18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -960,8 +1289,17 @@
       <c r="L19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -981,8 +1319,17 @@
       <c r="L20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1002,8 +1349,17 @@
       <c r="L21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1023,8 +1379,17 @@
       <c r="L22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O22" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1044,8 +1409,17 @@
       <c r="L23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1065,8 +1439,17 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1086,8 +1469,17 @@
       <c r="L25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O25" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1107,8 +1499,17 @@
       <c r="L26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1128,8 +1529,17 @@
       <c r="L27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1149,8 +1559,17 @@
       <c r="L28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>94</v>
+      </c>
+      <c r="P28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1170,8 +1589,17 @@
       <c r="L29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1191,8 +1619,17 @@
       <c r="L30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1212,8 +1649,17 @@
       <c r="L31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1233,8 +1679,17 @@
       <c r="L32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1254,8 +1709,17 @@
       <c r="L33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>99</v>
+      </c>
+      <c r="P33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1275,8 +1739,17 @@
       <c r="L34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1296,8 +1769,17 @@
       <c r="L35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1317,8 +1799,17 @@
       <c r="L36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1338,8 +1829,17 @@
       <c r="L37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1359,8 +1859,17 @@
       <c r="L38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O38" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1380,8 +1889,17 @@
       <c r="L39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O39" t="s">
+        <v>105</v>
+      </c>
+      <c r="P39" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1401,8 +1919,17 @@
       <c r="L40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1422,8 +1949,17 @@
       <c r="L41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O41" t="s">
+        <v>107</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1443,8 +1979,17 @@
       <c r="L42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O42" t="s">
+        <v>108</v>
+      </c>
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1464,8 +2009,17 @@
       <c r="L43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O43" t="s">
+        <v>109</v>
+      </c>
+      <c r="P43" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1485,8 +2039,17 @@
       <c r="L44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O44" t="s">
+        <v>110</v>
+      </c>
+      <c r="P44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1506,8 +2069,17 @@
       <c r="L45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O45" t="s">
+        <v>111</v>
+      </c>
+      <c r="P45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1527,8 +2099,17 @@
       <c r="L46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O46" t="s">
+        <v>112</v>
+      </c>
+      <c r="P46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1548,8 +2129,17 @@
       <c r="L47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1569,8 +2159,17 @@
       <c r="L48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O48" t="s">
+        <v>114</v>
+      </c>
+      <c r="P48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1590,8 +2189,17 @@
       <c r="L49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O49" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1611,8 +2219,17 @@
       <c r="L50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
+      <c r="P50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1632,8 +2249,17 @@
       <c r="L51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O51" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q51">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -1653,32 +2279,65 @@
       <c r="L52" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O52" t="s">
+        <v>118</v>
+      </c>
+      <c r="P52" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J53">
         <v>69</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O53" t="s">
+        <v>119</v>
+      </c>
+      <c r="P53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q53">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J54">
         <v>72</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O54" t="s">
+        <v>120</v>
+      </c>
+      <c r="P54" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J55">
         <v>888</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="P55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="J56">
         <v>999</v>
       </c>
@@ -1693,10 +2352,348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D08FC-849A-4497-B879-9A6B603EF911}">
+  <dimension ref="F7:BF8"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="6:58" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" t="s">
+        <v>82</v>
+      </c>
+      <c r="U7" t="s">
+        <v>83</v>
+      </c>
+      <c r="V7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="6:58" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <v>17</v>
+      </c>
+      <c r="T8">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <v>19</v>
+      </c>
+      <c r="V8">
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>21</v>
+      </c>
+      <c r="X8">
+        <v>22</v>
+      </c>
+      <c r="Y8">
+        <v>23</v>
+      </c>
+      <c r="Z8">
+        <v>24</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>26</v>
+      </c>
+      <c r="AC8">
+        <v>27</v>
+      </c>
+      <c r="AD8">
+        <v>28</v>
+      </c>
+      <c r="AE8">
+        <v>29</v>
+      </c>
+      <c r="AF8">
+        <v>30</v>
+      </c>
+      <c r="AG8">
+        <v>31</v>
+      </c>
+      <c r="AH8">
+        <v>32</v>
+      </c>
+      <c r="AI8">
+        <v>33</v>
+      </c>
+      <c r="AJ8">
+        <v>34</v>
+      </c>
+      <c r="AK8">
+        <v>35</v>
+      </c>
+      <c r="AL8">
+        <v>36</v>
+      </c>
+      <c r="AM8">
+        <v>37</v>
+      </c>
+      <c r="AN8">
+        <v>38</v>
+      </c>
+      <c r="AO8">
+        <v>39</v>
+      </c>
+      <c r="AP8">
+        <v>40</v>
+      </c>
+      <c r="AQ8">
+        <v>41</v>
+      </c>
+      <c r="AR8">
+        <v>42</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT8">
+        <v>44</v>
+      </c>
+      <c r="AU8">
+        <v>45</v>
+      </c>
+      <c r="AV8">
+        <v>46</v>
+      </c>
+      <c r="AW8">
+        <v>47</v>
+      </c>
+      <c r="AX8">
+        <v>48</v>
+      </c>
+      <c r="AY8">
+        <v>49</v>
+      </c>
+      <c r="AZ8">
+        <v>50</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB8">
+        <v>51</v>
+      </c>
+      <c r="BC8">
+        <v>53</v>
+      </c>
+      <c r="BD8">
+        <v>54</v>
+      </c>
+      <c r="BE8">
+        <v>55</v>
+      </c>
+      <c r="BF8">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5BBB6B-EA6B-4022-B510-0D0F30B5EA6F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/LaborShortageUSA/statemerge.xlsx
+++ b/LaborShortageUSA/statemerge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A71867-9F29-4740-ACE5-131F731B1B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9276739-ED2A-4EA8-B9CC-2C1C1CA3A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -742,7 +748,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:Q54"/>
     </sheetView>
   </sheetViews>
@@ -2355,331 +2361,331 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D08FC-849A-4497-B879-9A6B603EF911}">
   <dimension ref="F7:BF8"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BF7" sqref="F7:BF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="6:58" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AK7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AL7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AO7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AP7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AR7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AS7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AT7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AU7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AV7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AX7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AY7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BA7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BB7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BC7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BD7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BE7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BF7" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="6:58" x14ac:dyDescent="0.3">
-      <c r="F8">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>9</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>10</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>12</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>13</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>15</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>16</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>17</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <v>18</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>19</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <v>20</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="2">
         <v>21</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="2">
         <v>22</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <v>23</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="2">
         <v>24</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="2">
         <v>25</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="2">
         <v>26</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="2">
         <v>27</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="2">
         <v>28</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="2">
         <v>29</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="2">
         <v>30</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="2">
         <v>31</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="2">
         <v>32</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="2">
         <v>33</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="2">
         <v>34</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="2">
         <v>35</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="2">
         <v>36</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="2">
         <v>37</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="2">
         <v>38</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="2">
         <v>39</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="2">
         <v>40</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="2">
         <v>41</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="2">
         <v>42</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AS8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="2">
         <v>44</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="2">
         <v>45</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="2">
         <v>46</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="2">
         <v>47</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="2">
         <v>48</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="2">
         <v>49</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="2">
         <v>50</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BA8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" s="2">
         <v>51</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" s="2">
         <v>53</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" s="2">
         <v>54</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="2">
         <v>55</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="2">
         <v>56</v>
       </c>
     </row>

--- a/LaborShortageUSA/statemerge.xlsx
+++ b/LaborShortageUSA/statemerge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9276739-ED2A-4EA8-B9CC-2C1C1CA3A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92772C74-297B-4B39-BAA5-9A7CFFBC4030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="16755" yWindow="600" windowWidth="12390" windowHeight="8175" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="125">
   <si>
     <t>Alabama</t>
   </si>
@@ -2359,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D08FC-849A-4497-B879-9A6B603EF911}">
-  <dimension ref="F7:BF8"/>
+  <dimension ref="F7:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BF7" sqref="F7:BF8"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2553,8 +2553,8 @@
       <c r="M8" s="2">
         <v>10</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>122</v>
+      <c r="N8" s="3">
+        <v>11</v>
       </c>
       <c r="O8" s="2">
         <v>12</v>
@@ -2646,8 +2646,8 @@
       <c r="AR8" s="2">
         <v>42</v>
       </c>
-      <c r="AS8" s="3" t="s">
-        <v>122</v>
+      <c r="AS8" s="3">
+        <v>43</v>
       </c>
       <c r="AT8" s="2">
         <v>44</v>
@@ -2670,8 +2670,8 @@
       <c r="AZ8" s="2">
         <v>50</v>
       </c>
-      <c r="BA8" s="3" t="s">
-        <v>122</v>
+      <c r="BA8" s="3">
+        <v>57</v>
       </c>
       <c r="BB8" s="2">
         <v>51</v>
@@ -2687,6 +2687,434 @@
       </c>
       <c r="BF8" s="2">
         <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="6:58" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("cares",F7)</f>
+        <v>caresAL</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:BF9" si="0">_xlfn.CONCAT("cares",G7)</f>
+        <v>caresAK</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresAZ</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresAR</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresCA</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresCO</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresCT</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresDE</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresDC</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresFL</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresGA</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresHI</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresID</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresIL</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresIN</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresIA</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresKS</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresKY</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresLA</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresME</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMD</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMA</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMI</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMN</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMS</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMO</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresMT</v>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNE</v>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNV</v>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNH</v>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNJ</v>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNM</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNY</v>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresNC</v>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresND</v>
+      </c>
+      <c r="AO9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresOH</v>
+      </c>
+      <c r="AP9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresOK</v>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresOR</v>
+      </c>
+      <c r="AR9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresPA</v>
+      </c>
+      <c r="AS9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresPR</v>
+      </c>
+      <c r="AT9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresRI</v>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresSC</v>
+      </c>
+      <c r="AV9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresSD</v>
+      </c>
+      <c r="AW9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresTN</v>
+      </c>
+      <c r="AX9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresTX</v>
+      </c>
+      <c r="AY9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresUT</v>
+      </c>
+      <c r="AZ9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresVT</v>
+      </c>
+      <c r="BA9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresVI</v>
+      </c>
+      <c r="BB9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresVA</v>
+      </c>
+      <c r="BC9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresWA</v>
+      </c>
+      <c r="BD9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresWV</v>
+      </c>
+      <c r="BE9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresWI</v>
+      </c>
+      <c r="BF9" t="str">
+        <f t="shared" si="0"/>
+        <v>caresWY</v>
+      </c>
+    </row>
+    <row r="10" spans="6:58" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("cares",F8)</f>
+        <v>cares1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:BF10" si="1">_xlfn.CONCAT("cares",G8)</f>
+        <v>cares2</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares4</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares5</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares6</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares8</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares9</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares10</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares11</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares12</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares13</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares15</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares16</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares17</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares18</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares19</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares20</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares21</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares22</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares23</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares24</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares25</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares26</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares27</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares28</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares29</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares30</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares31</v>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares32</v>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares33</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares34</v>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares35</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares36</v>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares37</v>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares38</v>
+      </c>
+      <c r="AO10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares39</v>
+      </c>
+      <c r="AP10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares40</v>
+      </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares41</v>
+      </c>
+      <c r="AR10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares42</v>
+      </c>
+      <c r="AS10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares43</v>
+      </c>
+      <c r="AT10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares44</v>
+      </c>
+      <c r="AU10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares45</v>
+      </c>
+      <c r="AV10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares46</v>
+      </c>
+      <c r="AW10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares47</v>
+      </c>
+      <c r="AX10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares48</v>
+      </c>
+      <c r="AY10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares49</v>
+      </c>
+      <c r="AZ10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares50</v>
+      </c>
+      <c r="BA10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares57</v>
+      </c>
+      <c r="BB10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares51</v>
+      </c>
+      <c r="BC10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares53</v>
+      </c>
+      <c r="BD10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares54</v>
+      </c>
+      <c r="BE10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares55</v>
+      </c>
+      <c r="BF10" t="str">
+        <f t="shared" si="1"/>
+        <v>cares56</v>
       </c>
     </row>
   </sheetData>

--- a/LaborShortageUSA/statemerge.xlsx
+++ b/LaborShortageUSA/statemerge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Study\GitHub\public\LaborShortageUSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92772C74-297B-4B39-BAA5-9A7CFFBC4030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0525175-5B7A-44C0-86F1-C619D09762FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="16755" yWindow="600" windowWidth="12390" windowHeight="8175" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="124">
   <si>
     <t>Alabama</t>
   </si>
@@ -405,10 +405,6 @@
   </si>
   <si>
     <t>DistrictofColumbia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,8 +744,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1031,8 +1027,8 @@
       <c r="P10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>122</v>
+      <c r="Q10" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,10 +1955,10 @@
         <v>107</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q41" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,10 +2195,10 @@
         <v>115</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D08FC-849A-4497-B879-9A6B603EF911}">
   <dimension ref="F7:BF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
